--- a/biology/Botanique/Arthrostylidium_venezuelae/Arthrostylidium_venezuelae.xlsx
+++ b/biology/Botanique/Arthrostylidium_venezuelae/Arthrostylidium_venezuelae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthrostylidium venezuelae est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae (bambous), originaire d'Amérique du Sud.
-Ce sont des plantes vivaces, cespiteuses, aux rhizomes court, pachymorphes et aux tiges (chaumes) ligneuses, minces, pouvant atteindre de 3 à 8 m de long pour un diamètre de 10 à 30 mm[1].
+Ce sont des plantes vivaces, cespiteuses, aux rhizomes court, pachymorphes et aux tiges (chaumes) ligneuses, minces, pouvant atteindre de 3 à 8 m de long pour un diamètre de 10 à 30 mm.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (21 octobre 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 octobre 2016) :
 Arundinaria standleyi Hitchc.
 Chusquea venezuelae Steud.</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Amérique centrale (Costa Rica, Honduras, Nicaragua, Panama), en Amérique du Sud (Venezuela, Guyana, Colombie, Bolivie et Pérou) ainsi qu'en Guadeloupe, dans les Antilles françaises[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Amérique centrale (Costa Rica, Honduras, Nicaragua, Panama), en Amérique du Sud (Venezuela, Guyana, Colombie, Bolivie et Pérou) ainsi qu'en Guadeloupe, dans les Antilles françaises.
 </t>
         </is>
       </c>
